--- a/data/pokemon.xlsx
+++ b/data/pokemon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="746">
   <si>
     <t>Bulbasaur</t>
   </si>
@@ -3075,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3088,7 +3088,7 @@
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3200,6 +3200,15 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7">
+        <v>78</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
@@ -3506,7 +3515,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3517,7 +3526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3528,7 +3537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -3564,7 +3573,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -3575,7 +3584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -3586,7 +3595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3600,7 +3609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -3614,7 +3623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3627,8 +3636,11 @@
       <c r="D42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -3641,8 +3653,11 @@
       <c r="D43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -3656,7 +3671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -3670,7 +3685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -3684,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -3698,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>55</v>
       </c>
